--- a/data/员工管理导入模板.xlsx
+++ b/data/员工管理导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21195" windowHeight="7800"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,46 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>证件类型</t>
-  </si>
-  <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>职业</t>
-  </si>
-  <si>
-    <t>用工形式</t>
-  </si>
-  <si>
-    <t>工资卡开户行</t>
-  </si>
-  <si>
-    <t>工资卡卡号</t>
-  </si>
-  <si>
-    <t>入职日期</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>身份证地址</t>
-  </si>
-  <si>
-    <t>现居住地址</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>无湘不成军</t>
   </si>
@@ -120,12 +81,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,95 +96,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3C4353"/>
-      <name val="微软雅黑"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3C4353"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -242,32 +208,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,22 +236,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -305,43 +248,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,139 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,17 +439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,17 +466,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +490,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,11 +514,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,16 +559,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,139 +577,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1116,13 +1050,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
@@ -1139,146 +1073,105 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="27" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="27" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3">
       <formula1>"居民身份证,港澳通行证,台湾通行证,护照"</formula1>
     </dataValidation>
   </dataValidations>
